--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1227817.81032414</v>
+        <v>-1228254.125998587</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996846</v>
+        <v>218615.8834996853</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>147.4077906273036</v>
       </c>
       <c r="C2" t="n">
-        <v>337.8471375720433</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>23.13708668903012</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>182.9458384656554</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,7 +801,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.3503149004804</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.133291471361</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>258.7618757121326</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>24.33097843770441</v>
       </c>
       <c r="T6" t="n">
-        <v>20.50942432460787</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>76.07668192134949</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.24711240959375</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>177.7816723689555</v>
       </c>
       <c r="X8" t="n">
-        <v>9.443832880413662</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>5.943512079030481</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>137.0050947451504</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>37.0377965990056</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>84.31882417064588</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>298.9434052799212</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
-        <v>182.1321913830585</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825905</v>
+        <v>79.19456938825897</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.4622282009166</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>160.442025508113</v>
+        <v>101.1497849532728</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479852</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.0151234259421</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541868</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250313</v>
+        <v>89.82535758250305</v>
       </c>
       <c r="C13" t="n">
-        <v>67.53975030330834</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.646716825482</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126145</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944776</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673259</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374451</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007582</v>
+        <v>124.4104087596648</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>166.2334939821286</v>
       </c>
       <c r="W13" t="n">
-        <v>191.400380052742</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046128</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678985</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091668</v>
+        <v>50.01606198737416</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479852</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>248.9883426277118</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586887</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548875</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.030621801413</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250313</v>
+        <v>89.82535758250309</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790361</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.646716825482</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831536</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673263</v>
       </c>
       <c r="S16" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>106.7662096435104</v>
+        <v>70.93923529635096</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.400380052742</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
         <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046128</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X17" t="n">
-        <v>212.080773931265</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
         <v>223.4773717274634</v>
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13297117133634</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612602</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189419</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634699</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333754</v>
+        <v>262.1767938333756</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213526</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187751</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.4279579417132</v>
+        <v>42.42795794171334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437083</v>
+        <v>56.69561675437097</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472019</v>
+        <v>93.45428794472033</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793962</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121428</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083416</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581941</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595728</v>
+        <v>53.05874613595742</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135776</v>
+        <v>39.2587409813579</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893615</v>
+        <v>22.88010537893629</v>
       </c>
       <c r="E28" t="n">
-        <v>21.8278552347156</v>
+        <v>21.82785523471574</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290191</v>
+        <v>22.29477956290205</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424974</v>
+        <v>38.56948228424989</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694017</v>
+        <v>29.11784990694031</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176951</v>
+        <v>14.09994509176965</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018682</v>
+        <v>19.36549471018697</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877057</v>
+        <v>82.91159610877071</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908992</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542124</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355829</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061961</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019992</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806693</v>
+        <v>91.15373835806707</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612602</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189419</v>
+        <v>249.453352218942</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634726</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333754</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213526</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187751</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
         <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.4279579417132</v>
+        <v>42.42795794171329</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437083</v>
+        <v>56.69561675437092</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472019</v>
+        <v>93.45428794472028</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793962</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121428</v>
+        <v>249.5487702121429</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083416</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2928,7 +2928,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595728</v>
+        <v>53.05874613595736</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135776</v>
+        <v>39.25874098135785</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893615</v>
+        <v>22.88010537893624</v>
       </c>
       <c r="E31" t="n">
-        <v>21.8278552347156</v>
+        <v>21.82785523471568</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290191</v>
+        <v>22.29477956290199</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424974</v>
+        <v>38.56948228424983</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694017</v>
+        <v>29.11784990694025</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176951</v>
+        <v>14.0999450917696</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018682</v>
+        <v>19.36549471018691</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877057</v>
+        <v>82.91159610877065</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908992</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542124</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355829</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061961</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019992</v>
+        <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806693</v>
+        <v>91.15373835806702</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133622</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3591,7 +3591,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.9491271453866</v>
+        <v>1415.266473616825</v>
       </c>
       <c r="C2" t="n">
-        <v>61.68939222413074</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="D2" t="n">
-        <v>61.68939222413074</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="E2" t="n">
-        <v>61.68939222413074</v>
+        <v>638.5469950557388</v>
       </c>
       <c r="F2" t="n">
-        <v>51.57860557470513</v>
+        <v>628.4362084063132</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929716</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929716</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
@@ -4334,46 +4334,46 @@
         <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>671.0191475951676</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>1064.258313848256</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N2" t="n">
-        <v>1442.589672535971</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1747.594257008805</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
-        <v>1975.751153464858</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464858</v>
+        <v>1788.522178095211</v>
       </c>
       <c r="T2" t="n">
-        <v>1751.392207195869</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="U2" t="n">
-        <v>1496.506870909863</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="V2" t="n">
-        <v>1159.527596805805</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="W2" t="n">
-        <v>796.9926666634058</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="X2" t="n">
-        <v>796.9926666634058</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="Y2" t="n">
-        <v>796.9926666634058</v>
+        <v>1564.163231826222</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.4454982614021</v>
+        <v>336.4182527645947</v>
       </c>
       <c r="C3" t="n">
-        <v>688.7418255023568</v>
+        <v>336.4182527645947</v>
       </c>
       <c r="D3" t="n">
-        <v>549.9031884925689</v>
+        <v>197.5796157548068</v>
       </c>
       <c r="E3" t="n">
-        <v>402.8751785494402</v>
+        <v>197.5796157548068</v>
       </c>
       <c r="F3" t="n">
-        <v>268.1813804993145</v>
+        <v>62.8858177046811</v>
       </c>
       <c r="G3" t="n">
-        <v>139.4528805225991</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240331</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
         <v>329.259722162592</v>
       </c>
       <c r="L3" t="n">
-        <v>638.6503001091893</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.683653619416</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619416</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403567</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679264</v>
+        <v>1971.209250601184</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559804</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S3" t="n">
-        <v>1915.966884559804</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T3" t="n">
-        <v>1731.173108331869</v>
+        <v>1574.482293738528</v>
       </c>
       <c r="U3" t="n">
-        <v>1512.678315930179</v>
+        <v>1355.987501336838</v>
       </c>
       <c r="V3" t="n">
-        <v>1284.282693378513</v>
+        <v>1127.591878785172</v>
       </c>
       <c r="W3" t="n">
-        <v>1042.966824611823</v>
+        <v>886.2760100184822</v>
       </c>
       <c r="X3" t="n">
-        <v>1042.966824611823</v>
+        <v>688.3590218962768</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.4454982614021</v>
+        <v>495.8376955458556</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.5869162415345</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="C4" t="n">
-        <v>192.5869162415345</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394058</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142001</v>
+        <v>173.7262902142</v>
       </c>
       <c r="M4" t="n">
         <v>291.7197963418018</v>
@@ -4501,37 +4501,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870919</v>
+        <v>508.6057845870918</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309086</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309086</v>
+        <v>300.2503275108745</v>
       </c>
       <c r="V4" t="n">
-        <v>338.3953151309086</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="W4" t="n">
-        <v>338.3953151309086</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="X4" t="n">
-        <v>338.3953151309086</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.3953151309086</v>
+        <v>39.51502306929714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>616.4403496825274</v>
+        <v>1109.039186964185</v>
       </c>
       <c r="C5" t="n">
-        <v>234.5065910153347</v>
+        <v>727.1054282969919</v>
       </c>
       <c r="D5" t="n">
-        <v>234.5065910153347</v>
+        <v>465.7297962645347</v>
       </c>
       <c r="E5" t="n">
-        <v>234.5065910153347</v>
+        <v>465.7297962645347</v>
       </c>
       <c r="F5" t="n">
-        <v>224.3958043659091</v>
+        <v>455.6190096151091</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605012</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605012</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J5" t="n">
         <v>111.5135673421028</v>
@@ -4574,43 +4574,43 @@
         <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>969.8260601617171</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849434</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322268</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778321</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960711</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="S5" t="n">
-        <v>1885.112866960711</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="T5" t="n">
-        <v>1885.112866960711</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="U5" t="n">
-        <v>1630.227530674706</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="V5" t="n">
-        <v>1630.227530674706</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="W5" t="n">
-        <v>1267.692600532307</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.692600532307</v>
+        <v>1503.082726482204</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.1507451081446</v>
+        <v>1503.082726482204</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657.1862533589939</v>
+        <v>464.6409938551835</v>
       </c>
       <c r="C6" t="n">
-        <v>657.1862533589939</v>
+        <v>302.9373210961382</v>
       </c>
       <c r="D6" t="n">
-        <v>518.347616349206</v>
+        <v>302.9373210961382</v>
       </c>
       <c r="E6" t="n">
-        <v>371.3196064060772</v>
+        <v>302.9373210961382</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6258083559516</v>
+        <v>168.2435230460126</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240331</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K6" t="n">
-        <v>99.76916960240331</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="L6" t="n">
-        <v>149.6518896266369</v>
+        <v>465.5910147725189</v>
       </c>
       <c r="M6" t="n">
-        <v>634.6852431368634</v>
+        <v>950.6243682827453</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619416</v>
+        <v>1439.622778765297</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403567</v>
+        <v>1515.883604403565</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679264</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559804</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1915.966884559804</v>
+        <v>1891.390138663132</v>
       </c>
       <c r="T6" t="n">
-        <v>1895.250294332927</v>
+        <v>1702.705034829117</v>
       </c>
       <c r="U6" t="n">
-        <v>1676.755501931237</v>
+        <v>1484.210242427427</v>
       </c>
       <c r="V6" t="n">
-        <v>1448.359879379571</v>
+        <v>1255.814619875761</v>
       </c>
       <c r="W6" t="n">
-        <v>1207.044010612881</v>
+        <v>1014.498751109071</v>
       </c>
       <c r="X6" t="n">
-        <v>1009.127022490676</v>
+        <v>816.5817629868656</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.6056961402548</v>
+        <v>624.0604366364444</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.5066648736845</v>
+        <v>116.3601563231855</v>
       </c>
       <c r="C7" t="n">
-        <v>361.5066648736845</v>
+        <v>116.3601563231855</v>
       </c>
       <c r="D7" t="n">
-        <v>208.4347717014472</v>
+        <v>116.3601563231855</v>
       </c>
       <c r="E7" t="n">
-        <v>208.4347717014472</v>
+        <v>116.3601563231855</v>
       </c>
       <c r="F7" t="n">
-        <v>208.4347717014472</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929714</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394058</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142001</v>
+        <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
         <v>291.7197963418018</v>
@@ -4738,37 +4738,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6057845870919</v>
+        <v>508.6057845870918</v>
       </c>
       <c r="P7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152297</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="U7" t="n">
-        <v>571.5742683152297</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="V7" t="n">
-        <v>571.5742683152297</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="W7" t="n">
-        <v>571.5742683152297</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="X7" t="n">
-        <v>571.5742683152297</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="Y7" t="n">
-        <v>545.0620335580643</v>
+        <v>116.3601563231855</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1244.958507857523</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="C8" t="n">
-        <v>863.02474919033</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D8" t="n">
-        <v>863.02474919033</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W8" t="n">
-        <v>1648.039588413416</v>
+        <v>1606.638125449497</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.500363281685</v>
+        <v>1224.60798497099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1244.958507857523</v>
+        <v>831.0661295468284</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.3746967613888</v>
+        <v>724.2262313165888</v>
       </c>
       <c r="C9" t="n">
-        <v>518.6710240023435</v>
+        <v>562.5225585575436</v>
       </c>
       <c r="D9" t="n">
-        <v>379.8323869925556</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4887,19 +4887,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>2022.363824887691</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4914,19 +4914,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1699.943945333632</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1471.548322781966</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1230.232454015276</v>
+        <v>1114.664545789215</v>
       </c>
       <c r="X9" t="n">
-        <v>1032.315465893071</v>
+        <v>916.74755766701</v>
       </c>
       <c r="Y9" t="n">
-        <v>839.7941395426498</v>
+        <v>724.2262313165888</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>79.43617185777055</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>79.43617185777055</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="U10" t="n">
-        <v>248.3559204899205</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="V10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.3559204899205</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1458.358512112373</v>
+        <v>1366.779107661972</v>
       </c>
       <c r="C11" t="n">
-        <v>1458.358512112373</v>
+        <v>1077.668033252388</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.357231597205</v>
+        <v>1077.668033252388</v>
       </c>
       <c r="E11" t="n">
-        <v>876.3941959609211</v>
+        <v>775.7049976161043</v>
       </c>
       <c r="F11" t="n">
-        <v>555.0656895287004</v>
+        <v>454.3764911838836</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407625</v>
+        <v>131.0951888956806</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>131.0951888956806</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
-        <v>123.0992186348914</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>363.2395906796742</v>
+        <v>545.1906163614394</v>
       </c>
       <c r="L11" t="n">
-        <v>802.100476605503</v>
+        <v>984.0515022872682</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.315155699474</v>
+        <v>1458.133111960264</v>
       </c>
       <c r="N11" t="n">
-        <v>1664.646514387189</v>
+        <v>1836.46447064798</v>
       </c>
       <c r="O11" t="n">
-        <v>2060.626611700906</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.759020997842</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.497456092907</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U11" t="n">
-        <v>2261.43480406451</v>
+        <v>2226.91966502807</v>
       </c>
       <c r="V11" t="n">
-        <v>2017.27821421806</v>
+        <v>2226.91966502807</v>
       </c>
       <c r="W11" t="n">
-        <v>1747.56596833327</v>
+        <v>1957.20741914328</v>
       </c>
       <c r="X11" t="n">
-        <v>1458.358512112373</v>
+        <v>1667.999962922382</v>
       </c>
       <c r="Y11" t="n">
-        <v>1458.358512112373</v>
+        <v>1667.999962922382</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D12" t="n">
         <v>629.8711250952965</v>
@@ -5115,16 +5115,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,22 +5142,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
         <v>1267.641586535707</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>298.4161539777419</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="C13" t="n">
-        <v>230.1941839744002</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D13" t="n">
-        <v>169.9449750597718</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E13" t="n">
-        <v>110.7586450786996</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="G13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499907</v>
       </c>
       <c r="K13" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.376380491667</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506343</v>
+        <v>817.7432540506347</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5218,31 +5218,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.33147454359</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1214.33147454359</v>
+        <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1214.33147454359</v>
+        <v>1036.745299076875</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.975205616878</v>
+        <v>896.3890301501625</v>
       </c>
       <c r="U13" t="n">
-        <v>879.6076503635868</v>
+        <v>770.7219505949456</v>
       </c>
       <c r="V13" t="n">
-        <v>711.6950301796185</v>
+        <v>602.8093304109773</v>
       </c>
       <c r="W13" t="n">
-        <v>518.3613129546266</v>
+        <v>409.4756131859855</v>
       </c>
       <c r="X13" t="n">
-        <v>518.3613129546266</v>
+        <v>271.0458333389703</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.1488384045126</v>
+        <v>141.8333587888565</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1243.504571355342</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="C14" t="n">
-        <v>954.393496945758</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="D14" t="n">
-        <v>674.3922164305905</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="E14" t="n">
-        <v>372.4291807943064</v>
+        <v>935.709073227591</v>
       </c>
       <c r="F14" t="n">
-        <v>51.10067436208574</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
-        <v>51.10067436208574</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
         <v>51.10067436208574</v>
@@ -5276,52 +5276,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>214.0747314757739</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>454.2151035205567</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
         <v>802.100476605503</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.182086278499</v>
+        <v>1274.041158040331</v>
       </c>
       <c r="N14" t="n">
-        <v>1745.488957807098</v>
+        <v>1743.348029568929</v>
       </c>
       <c r="O14" t="n">
-        <v>2141.469055120814</v>
+        <v>2139.328126882646</v>
       </c>
       <c r="P14" t="n">
-        <v>2460.60146441775</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q14" t="n">
-        <v>2555.033718104287</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.62742699225</v>
+        <v>2504.512443369566</v>
       </c>
       <c r="T14" t="n">
-        <v>2329.09116498087</v>
+        <v>2372.976181358186</v>
       </c>
       <c r="U14" t="n">
-        <v>2329.09116498087</v>
+        <v>2372.976181358186</v>
       </c>
       <c r="V14" t="n">
-        <v>2084.93457513442</v>
+        <v>2128.819591511736</v>
       </c>
       <c r="W14" t="n">
-        <v>1833.431198742792</v>
+        <v>2128.819591511736</v>
       </c>
       <c r="X14" t="n">
-        <v>1544.223742521895</v>
+        <v>1839.612135290838</v>
       </c>
       <c r="Y14" t="n">
-        <v>1243.504571355342</v>
+        <v>1538.892964124285</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H15" t="n">
         <v>119.4829596720247</v>
@@ -5355,13 +5355,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5400,7 +5400,7 @@
         <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>239.5235286971373</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="C16" t="n">
-        <v>162.7302434164265</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K16" t="n">
         <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.376380491667</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601514</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506343</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5458,28 +5458,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1214.33147454359</v>
+        <v>1157.632377415578</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.444396204887</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>985.5997399993205</v>
+        <v>965.089505848237</v>
       </c>
       <c r="U16" t="n">
-        <v>791.2321847460292</v>
+        <v>770.7219505949458</v>
       </c>
       <c r="V16" t="n">
-        <v>791.2321847460292</v>
+        <v>602.8093304109775</v>
       </c>
       <c r="W16" t="n">
-        <v>597.8984675210373</v>
+        <v>409.4756131859857</v>
       </c>
       <c r="X16" t="n">
-        <v>459.468687674022</v>
+        <v>271.0458333389705</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.2562131239081</v>
+        <v>141.8333587888565</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0485364810478</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>826.9339095659941</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.173075819082</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
         <v>1762.97220899783</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.601464417749</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
         <v>348.1493171020421</v>
@@ -5589,16 +5589,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E20" t="n">
         <v>715.765778761493</v>
@@ -5753,25 +5753,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L20" t="n">
-        <v>751.3007196776764</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M20" t="n">
-        <v>1144.539885930764</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N20" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
         <v>219.4208171253267</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5893,31 +5893,31 @@
         <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>66.58441399778671</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
-        <v>74.18506434652159</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G22" t="n">
-        <v>73.07245222190386</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H22" t="n">
-        <v>73.07245222190386</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="I22" t="n">
-        <v>96.20682289912145</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="J22" t="n">
-        <v>96.20682289912145</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="K22" t="n">
-        <v>129.8110106437649</v>
+        <v>98.61373453290796</v>
       </c>
       <c r="L22" t="n">
-        <v>230.4180900440244</v>
+        <v>199.2208139331674</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4115961716261</v>
+        <v>317.2143200607692</v>
       </c>
       <c r="N22" t="n">
         <v>466.8339379212265</v>
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5981,34 +5981,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>643.516310972081</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1155.86945854806</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M23" t="n">
-        <v>1549.108624801147</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.439983488863</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O23" t="n">
-        <v>2232.444567961697</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6026,7 +6026,7 @@
         <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
@@ -6063,13 +6063,13 @@
         <v>104.7703422119204</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>59.3673192722844</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>82.50168994950199</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>82.50168994950199</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>116.1058776941454</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
-        <v>216.7129570944049</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>334.7064632220066</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>453.128804971607</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>551.5924514672967</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P25" t="n">
-        <v>614.5609351954345</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q25" t="n">
         <v>629.3786802696717</v>
@@ -6178,19 +6178,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X25" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133858</v>
+        <v>878.7372736133862</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413124</v>
+        <v>594.5467585413126</v>
       </c>
       <c r="G26" t="n">
         <v>308.4034476132567</v>
       </c>
       <c r="H26" t="n">
-        <v>105.542848828322</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>216.9651972767709</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183886</v>
+        <v>584.4800274945165</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576298</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.447614002349</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.153430863028</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.43834268495</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743715</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W26" t="n">
         <v>2418.132198661399</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E27" t="n">
         <v>494.4287664449564</v>
@@ -6300,16 +6300,16 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J27" t="n">
-        <v>122.9404721879804</v>
+        <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182847</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042388</v>
+        <v>252.6345665042398</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836754</v>
+        <v>212.9792725836763</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291944</v>
+        <v>189.8680550291952</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082696</v>
+        <v>167.8197164082702</v>
       </c>
       <c r="F28" t="n">
-        <v>145.299737051803</v>
+        <v>145.2997370518035</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374093</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443948</v>
+        <v>76.92869443443965</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J28" t="n">
-        <v>131.198684289868</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8028720345114</v>
+        <v>223.6649715724805</v>
       </c>
       <c r="L28" t="n">
-        <v>280.7485576031307</v>
+        <v>451.6465091457029</v>
       </c>
       <c r="M28" t="n">
-        <v>526.1165219036953</v>
+        <v>569.6400152733046</v>
       </c>
       <c r="N28" t="n">
-        <v>644.5388636532957</v>
+        <v>688.062357022905</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219483</v>
+        <v>870.3769683219512</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223049</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142493</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374627</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396071</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295063</v>
+        <v>943.7954498295082</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363625</v>
+        <v>786.5658859363642</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125414</v>
+        <v>655.791257112543</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476968</v>
+        <v>499.5955312476983</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608289</v>
+        <v>398.3037427608302</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708623</v>
+        <v>306.2292595708635</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093981</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889522</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133855</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413121</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132564</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
-        <v>105.542848828322</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J29" t="n">
-        <v>216.9651972767691</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K29" t="n">
-        <v>584.4800274945148</v>
+        <v>629.5741583183885</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752424</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178475</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039154</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.43834268495</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743715</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879804</v>
+        <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182847</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6564,16 +6564,16 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S30" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U30" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V30" t="n">
         <v>1733.172712177496</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042388</v>
+        <v>252.6345665042394</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836754</v>
+        <v>212.9792725836759</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291944</v>
+        <v>189.8680550291949</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082696</v>
+        <v>167.81971640827</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051803</v>
+        <v>145.2997370518033</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374093</v>
+        <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443948</v>
+        <v>76.92869443443959</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487431</v>
+        <v>62.68632565487434</v>
       </c>
       <c r="J31" t="n">
-        <v>131.198684289868</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074744</v>
+        <v>292.1773302074741</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077339</v>
+        <v>392.7844096077337</v>
       </c>
       <c r="M31" t="n">
-        <v>526.1165219036953</v>
+        <v>638.1523739082983</v>
       </c>
       <c r="N31" t="n">
-        <v>771.9133218262587</v>
+        <v>883.9491738308616</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949112</v>
+        <v>997.7514264949126</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223049</v>
+        <v>1060.71991022305</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142493</v>
+        <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374627</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396071</v>
+        <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295063</v>
+        <v>943.7954498295073</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363625</v>
+        <v>786.5658859363634</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125414</v>
+        <v>655.7912571125423</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476968</v>
+        <v>499.5955312476977</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608289</v>
+        <v>398.3037427608297</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708623</v>
+        <v>306.229259570863</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>538.1905678988578</v>
       </c>
       <c r="L32" t="n">
-        <v>991.0177204292718</v>
+        <v>1021.484110185686</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1550.131445640657</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2063.870973530255</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2504.283727204971</v>
       </c>
       <c r="P32" t="n">
         <v>2732.440623661025</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
-        <v>491.9195334130543</v>
+        <v>477.2069159529498</v>
       </c>
       <c r="F33" t="n">
-        <v>357.2257353629286</v>
+        <v>342.5131179028242</v>
       </c>
       <c r="G33" t="n">
-        <v>228.4972353862132</v>
+        <v>213.7846179261088</v>
       </c>
       <c r="H33" t="n">
-        <v>128.5593779329113</v>
+        <v>113.8467604728068</v>
       </c>
       <c r="I33" t="n">
         <v>60.17709262297225</v>
@@ -6801,28 +6801,28 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6859,22 +6859,22 @@
         <v>60.17709262297225</v>
       </c>
       <c r="K34" t="n">
-        <v>229.1894495694981</v>
+        <v>93.78128036761566</v>
       </c>
       <c r="L34" t="n">
-        <v>348.0011241383832</v>
+        <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>465.9946302659849</v>
+        <v>583.1982042992418</v>
       </c>
       <c r="N34" t="n">
-        <v>719.8251412174677</v>
+        <v>757.5955894709872</v>
       </c>
       <c r="O34" t="n">
-        <v>953.6969569150399</v>
+        <v>856.0592359666769</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6917,10 +6917,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F35" t="n">
         <v>469.4217245791957</v>
@@ -6938,25 +6938,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>403.41534659273</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>751.3007196776763</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208574</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E37" t="n">
         <v>52.21328648670347</v>
@@ -7102,43 +7102,43 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479472</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927299</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776762</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7239,22 +7239,22 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7342,40 +7342,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>991.4016840570267</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.108624801147</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
         <v>2460.60146441775</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
         <v>52.21328648670347</v>
@@ -7561,58 +7561,58 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>56.26358779153714</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>79.39795846875474</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>79.39795846875474</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>113.0021462133981</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>213.6092256136577</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>331.6027317412594</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N44" t="n">
-        <v>1647.163263196456</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E46" t="n">
-        <v>66.58441399778665</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F46" t="n">
-        <v>66.58441399778665</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G46" t="n">
-        <v>65.47180187316887</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>73.0724522219046</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437655</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440251</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716268</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212272</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169168</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450546</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>514.1513315654197</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>370.8458734565158</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,22 +8061,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>425.0911688707411</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>600.6529294339225</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>118.3229721152696</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>460.1732313556291</v>
       </c>
       <c r="N5" t="n">
-        <v>444.3566395505275</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8298,16 +8298,16 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>162.9620194542121</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339228</v>
+        <v>600.6529294339225</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>192.8905856194626</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8535,7 +8535,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>193.3806259623375</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566037</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.2086467078061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>137.9162978822625</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.5986042436308</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091668</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>59.29224055484008</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.485602124595275</v>
+        <v>76.02535242790353</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548192</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126137</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944768</v>
       </c>
       <c r="G13" t="n">
-        <v>75.3360937307956</v>
+        <v>75.33609373079551</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348602</v>
+        <v>65.88446135348593</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831536</v>
+        <v>50.86655653831528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673268</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>68.01347094109337</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.2086467078061</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.048489265321</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825905</v>
+        <v>79.19456938825901</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>43.44616621354248</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>18.02678079823033</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790357</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548196</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126145</v>
+        <v>58.59446668126141</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944776</v>
+        <v>59.06139100944772</v>
       </c>
       <c r="G16" t="n">
-        <v>75.3360937307956</v>
+        <v>75.33609373079555</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348602</v>
+        <v>65.88446135348597</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831532</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673268</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>32.18649659393469</v>
+        <v>68.01347094109404</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.04524729835603e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.632507277493501e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -26326,10 +26326,10 @@
         <v>116666.4895619039</v>
       </c>
       <c r="G2" t="n">
+        <v>134334.2105864818</v>
+      </c>
+      <c r="H2" t="n">
         <v>134334.2105864819</v>
-      </c>
-      <c r="H2" t="n">
-        <v>134334.2105864818</v>
       </c>
       <c r="I2" t="n">
         <v>134334.2105864819</v>
@@ -26341,13 +26341,13 @@
         <v>134334.210586482</v>
       </c>
       <c r="L2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864819</v>
       </c>
       <c r="M2" t="n">
         <v>134334.2105864818</v>
       </c>
       <c r="N2" t="n">
-        <v>134334.2105864819</v>
+        <v>134334.2105864818</v>
       </c>
       <c r="O2" t="n">
         <v>134334.2105864818</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506509</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746722</v>
+        <v>9743.038208746812</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193924</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422433</v>
+        <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207622</v>
+        <v>65879.57388207625</v>
       </c>
       <c r="M3" t="n">
         <v>23482.5093245656</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732375</v>
+        <v>43541.16890732371</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.03306035</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.03306035</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353294</v>
@@ -26439,7 +26439,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
         <v>176368.8129357921</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266584</v>
+        <v>63659.01753266582</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266584</v>
+        <v>63659.01753266582</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26488,13 +26488,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
         <v>58458.01489582854</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582854</v>
+        <v>58458.01489582855</v>
       </c>
       <c r="L5" t="n">
         <v>57233.20592541149</v>
@@ -26528,22 +26528,22 @@
         <v>-126750.6215924695</v>
       </c>
       <c r="E6" t="n">
-        <v>-155468.0245047985</v>
+        <v>-155720.4205194355</v>
       </c>
       <c r="F6" t="n">
-        <v>-48077.22342903502</v>
+        <v>-48329.61944367188</v>
       </c>
       <c r="G6" t="n">
         <v>-153479.4130283394</v>
       </c>
       <c r="H6" t="n">
-        <v>-94091.72684640021</v>
+        <v>-94091.72684640018</v>
       </c>
       <c r="I6" t="n">
-        <v>-94091.72684640017</v>
+        <v>-94091.72684640015</v>
       </c>
       <c r="J6" t="n">
-        <v>-311161.0966873819</v>
+        <v>-311161.0966873817</v>
       </c>
       <c r="K6" t="n">
         <v>-100492.6172451386</v>
@@ -26555,13 +26555,13 @@
         <v>-117574.2361709658</v>
       </c>
       <c r="N6" t="n">
-        <v>-94091.72684640012</v>
+        <v>-94091.72684640021</v>
       </c>
       <c r="O6" t="n">
-        <v>-137632.895753724</v>
+        <v>-137632.8957537239</v>
       </c>
       <c r="P6" t="n">
-        <v>-94091.72684640015</v>
+        <v>-94091.72684640018</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
         <v>128.6610688615787</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="F4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859289</v>
+        <v>783.5790706859292</v>
       </c>
       <c r="K4" t="n">
-        <v>783.5790706859289</v>
+        <v>783.5790706859292</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871531</v>
@@ -26823,13 +26823,13 @@
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742405</v>
+        <v>74.23460772742401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415469</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259527</v>
+        <v>82.34946735259531</v>
       </c>
       <c r="M2" t="n">
         <v>29.353136655707</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415469</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877579</v>
+        <v>31.36541289877607</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742405</v>
+        <v>74.23460772742401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415469</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877579</v>
+        <v>31.36541289877607</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>242.6953134955353</v>
       </c>
       <c r="C2" t="n">
-        <v>40.26728350847742</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>104.3041282879181</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3.852414330019201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.36950009705566</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27588,13 +27588,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134.9698126514779</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>110.333849412916</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>126.9405136796827</v>
       </c>
       <c r="T6" t="n">
-        <v>166.2888284710668</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>74.87916650313116</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27825,7 +27825,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.5676948100519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27904,7 +27904,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>181.1279084720195</v>
       </c>
       <c r="X8" t="n">
-        <v>368.7660061933079</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>139.614217764667</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>101.8976153338727</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>105.7232173543427</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>173.8091272265157</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M11" t="n">
-        <v>91.89445741503289</v>
+        <v>81.6590337574828</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>91.89445741503289</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.65903375748312</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="12">
@@ -28169,10 +28169,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503289</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>81.65903375748326</v>
+        <v>79.49647998155547</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503289</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503289</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="17">
@@ -28588,22 +28588,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>166.1290651424569</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>116.9787331327007</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68561682995298</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28825,10 +28825,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L20" t="n">
-        <v>40.58157162934953</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28965,10 +28965,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
+        <v>150.4889240962943</v>
+      </c>
+      <c r="F22" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="F22" t="n">
-        <v>158.6332730191623</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>31.5124001119767</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29059,10 +29059,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>116.9787331327015</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>166.1290651424569</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550327</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29211,10 +29211,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.11938719975414</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675853</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>83.11144176675646</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615787</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L28" t="n">
-        <v>15.49354158420181</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615787</v>
+        <v>84.69794424581465</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>128.6610688615787</v>
       </c>
       <c r="J29" t="n">
-        <v>83.11144176675671</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="K29" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675839</v>
       </c>
       <c r="M29" t="n">
         <v>128.6610688615787</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29700,13 +29700,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>15.49354158420175</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N31" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615787</v>
+        <v>15.49354158420338</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29773,22 +29773,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
+        <v>30.77413106708556</v>
+      </c>
+      <c r="L32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>30.77413106708593</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550339</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="L34" t="n">
-        <v>18.3884799683087</v>
-      </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
+        <v>56.54044790115664</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="O34" t="n">
-        <v>136.7759284867499</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>40.58157162934933</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,19 +30019,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P35" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30244,13 +30244,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934927</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>45.561766199026</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30487,19 +30487,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>166.1290651424569</v>
+      </c>
+      <c r="P41" t="n">
         <v>116.9787331327009</v>
-      </c>
-      <c r="M41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30633,10 +30633,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>162.9939828386718</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>45.561766199026</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,28 +30718,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30870,10 +30870,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>165.4563433632015</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34702,7 +34702,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>322.5911194023051</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>183.8910766763954</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>312.5157352995932</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>4.587780670377157</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>273.01691685847</v>
       </c>
       <c r="N5" t="n">
-        <v>257.9585253782974</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.38658588306428</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662142</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>77.03113700835151</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35255,7 +35255,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>79.64543451744501</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107963</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675038</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>478.870312801006</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>399.9798962764813</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868038</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.045148592369</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506389</v>
+        <v>32.43779121506397</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L13" t="n">
-        <v>193.5177699405475</v>
+        <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218504</v>
+        <v>53.74248948218512</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>478.8703128010064</v>
+        <v>476.7077590250786</v>
       </c>
       <c r="N14" t="n">
-        <v>474.0473449783821</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764813</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868038</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.162553775927748</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506389</v>
+        <v>32.43779121506393</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
-        <v>193.5177699405475</v>
+        <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398831</v>
+        <v>211.0798171398832</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985578</v>
+        <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218504</v>
+        <v>53.74248948218508</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>359.5447655011681</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,13 +35893,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>499.1316206960499</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -36021,7 +36021,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
-        <v>165.8709765548032</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36121,10 +36121,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L20" t="n">
-        <v>391.9809383818205</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36261,10 +36261,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7.677424594681691</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>151.1309271317751</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>359.5447655011689</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>517.5284318949278</v>
@@ -36373,13 +36373,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117112</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36507,10 +36507,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.96741926690629</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.386871157342</v>
+        <v>155.8372440625218</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300462</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140497</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051019</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249279</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>391.1968806282049</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964646</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247356</v>
+        <v>38.92916522247342</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160975</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L28" t="n">
-        <v>117.1168541097165</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M28" t="n">
-        <v>247.846428586429</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451037</v>
+        <v>184.1561730293396</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798998</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873089</v>
+        <v>90.50910092873075</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>155.83724406252</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300462</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140497</v>
+        <v>434.5108085192293</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051019</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
         <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230272</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
         <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964646</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247356</v>
+        <v>38.92916522247347</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160975</v>
+        <v>69.20440266160966</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460671</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>134.678901309052</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813771</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451037</v>
+        <v>114.9517703677283</v>
       </c>
       <c r="P31" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873089</v>
+        <v>90.5091009287308</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>273.340163435553</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>412.9270186304352</v>
+        <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>120.0117924938234</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116002</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065483</v>
+        <v>176.158974920955</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>283.1476039978168</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37315,19 +37315,19 @@
         <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251126</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37558,13 +37558,13 @@
         <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>165.1802932188243</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>468.3780998851719</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37868,7 +37868,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.21506407015293</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197983</v>
+        <v>165.1802932188243</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>425.0641719941495</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.64014104616254</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.677424594682552</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910863</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
